--- a/优先掉落。.xlsx
+++ b/优先掉落。.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\CS饰品\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F154883-5864-4909-998A-1576B44052C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0F25AB-2049-4EE1-8CAA-4D047A4968B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="199">
   <si>
     <t>R8左轮手枪 | 渐变琥珀</t>
   </si>
@@ -220,12 +220,6 @@
   </si>
   <si>
     <t>MP7</t>
-  </si>
-  <si>
-    <t>MP5-SD | 小白鼠</t>
-  </si>
-  <si>
-    <t>神秘小镇收藏品</t>
   </si>
   <si>
     <t>MP5-SD</t>
@@ -1065,19 +1059,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E152"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1088,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1128,7 +1122,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1145,7 +1139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -1162,7 +1156,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1179,7 +1173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1190,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1213,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1230,7 +1224,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -1247,7 +1241,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -1264,7 +1258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1281,7 +1275,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1298,7 +1292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1315,7 +1309,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1332,7 +1326,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -1349,7 +1343,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -1366,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -1383,7 +1377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -1400,7 +1394,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1417,7 +1411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -1434,7 +1428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1451,7 +1445,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1468,7 +1462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1485,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1502,7 +1496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>57</v>
       </c>
@@ -1519,7 +1513,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1536,7 +1530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1553,7 +1547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1570,7 +1564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1587,7 +1581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>63</v>
       </c>
@@ -1604,24 +1598,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -1629,101 +1623,101 @@
         <v>1</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>69</v>
       </c>
-      <c r="D33" t="s">
-        <v>10</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>70</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" t="s">
-        <v>59</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>71</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="E36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>75</v>
       </c>
@@ -1731,16 +1725,16 @@
         <v>9</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
         <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -1748,33 +1742,33 @@
         <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" t="s">
-        <v>44</v>
-      </c>
       <c r="E41" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -1782,67 +1776,67 @@
         <v>18</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D42" t="s">
-        <v>81</v>
+        <v>3</v>
       </c>
       <c r="E42" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>83</v>
-      </c>
       <c r="B44" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" t="s">
         <v>84</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
       </c>
       <c r="E45" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -1850,84 +1844,84 @@
         <v>29</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D46" t="s">
+        <v>56</v>
+      </c>
+      <c r="E46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>86</v>
       </c>
-      <c r="E46" t="s">
+      <c r="B47" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>88</v>
-      </c>
       <c r="B48" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" t="s">
         <v>89</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" t="s">
-        <v>67</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>90</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>29</v>
+      <c r="B50" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -1935,84 +1929,84 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>93</v>
       </c>
-      <c r="D51" t="s">
-        <v>16</v>
-      </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>1</v>
+      <c r="B52" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D53" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" t="s">
         <v>97</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55" t="s">
-        <v>56</v>
       </c>
       <c r="E55" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -2020,84 +2014,84 @@
         <v>9</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>99</v>
-      </c>
-      <c r="E56" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>100</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E58" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>101</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>102</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" t="s">
-        <v>36</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="B60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" t="s">
-        <v>52</v>
-      </c>
-      <c r="E60" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>104</v>
       </c>
@@ -2105,223 +2099,217 @@
         <v>18</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" t="s">
+        <v>76</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>106</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D62" t="s">
-        <v>64</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="B63" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="64" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>107</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E63" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B64" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>108</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" t="s">
-        <v>40</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="B65" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="66" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>109</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D65" t="s">
-        <v>23</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="B66" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="67" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>110</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D66" t="s">
-        <v>91</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="B67" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="68" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D67" t="s">
-        <v>32</v>
-      </c>
-      <c r="E67" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="B69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>112</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D68" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>121</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>113</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
         <v>114</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>115</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>119</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>9</v>
+        <v>118</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>120</v>
       </c>
@@ -2329,832 +2317,821 @@
         <v>18</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>123</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>124</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>126</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>127</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>128</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>129</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>130</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>138</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>132</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>133</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>134</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>136</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>122</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>123</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>124</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>125</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>126</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>127</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>128</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>129</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>130</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>131</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>132</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>140</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>133</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>134</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>135</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>137</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>138</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>139</v>
-      </c>
-      <c r="B96" s="6" t="s">
-        <v>29</v>
+      <c r="B96" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>143</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>1</v>
+        <v>142</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="B98" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>184</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>6</v>
+        <v>196</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>184</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>147</v>
       </c>
-      <c r="B104" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="B106" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>148</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="B107" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>185</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>149</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>195</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>186</v>
       </c>
-      <c r="B106" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>149</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="B111" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>187</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>150</v>
       </c>
-      <c r="B108" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>187</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="B113" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
         <v>151</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="B114" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    </row>
+    <row r="115" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>153</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>154</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>155</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>156</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>157</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>158</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>159</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>160</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>161</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
         <v>188</v>
       </c>
-      <c r="B112" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>189</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>152</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>153</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>154</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>155</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>156</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>157</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>158</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>159</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>160</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>161</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="B125" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>162</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>163</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>190</v>
       </c>
       <c r="B126" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B127" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>165</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>6</v>
+        <v>164</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B131" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="B133" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
+        <v>168</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>169</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>191</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>170</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
         <v>192</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>170</v>
-      </c>
-      <c r="B135" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="B138" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>193</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
         <v>171</v>
       </c>
-      <c r="B136" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>193</v>
-      </c>
-      <c r="B137" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="B140" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
         <v>172</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="B141" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>173</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>174</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>175</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>176</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>177</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>194</v>
       </c>
-      <c r="B139" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>195</v>
-      </c>
-      <c r="B140" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>173</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>174</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>175</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>176</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>177</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="B147" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
         <v>178</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="B148" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
         <v>179</v>
       </c>
-      <c r="B147" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>196</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+      <c r="B149" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>180</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="B150" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="14.5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
         <v>181</v>
       </c>
-      <c r="B150" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>182</v>
-      </c>
       <c r="B151" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>183</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
